--- a/Team-Data/2012-13/3-3-2012-13.xlsx
+++ b/Team-Data/2012-13/3-3-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.569</v>
+        <v>0.579</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -687,10 +754,10 @@
         <v>80.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M2" t="n">
         <v>23.7</v>
@@ -699,31 +766,31 @@
         <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P2" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.705</v>
+        <v>0.708</v>
       </c>
       <c r="R2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -744,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -771,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -780,10 +847,10 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -792,19 +859,19 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -944,13 +1011,13 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -959,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
@@ -980,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>0.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1138,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J5" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O5" t="n">
         <v>19.1</v>
@@ -1254,13 +1321,13 @@
         <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T5" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U5" t="n">
         <v>18.9</v>
@@ -1269,7 +1336,7 @@
         <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>6.3</v>
@@ -1278,19 +1345,19 @@
         <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
         <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-10</v>
+        <v>-9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,10 +1384,10 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1332,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>27</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1415,40 +1482,40 @@
         <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
         <v>4.8</v>
       </c>
       <c r="M6" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O6" t="n">
         <v>16.9</v>
       </c>
       <c r="P6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q6" t="n">
         <v>0.781</v>
       </c>
       <c r="R6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
         <v>30.8</v>
       </c>
       <c r="T6" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U6" t="n">
         <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,10 +1524,10 @@
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
@@ -1469,10 +1536,10 @@
         <v>92.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1505,19 +1572,19 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1538,10 +1605,10 @@
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="n">
         <v>26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>27</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1693,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1702,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
@@ -1711,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1729,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1825,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.441</v>
+        <v>0.448</v>
       </c>
       <c r="H8" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I8" t="n">
         <v>38.3</v>
@@ -1782,37 +1849,37 @@
         <v>0.454</v>
       </c>
       <c r="L8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M8" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O8" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P8" t="n">
         <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
         <v>9.6</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1821,10 +1888,10 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>19.4</v>
@@ -1833,10 +1900,10 @@
         <v>101</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1866,13 +1933,13 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1884,16 +1951,16 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
@@ -1902,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
@@ -2045,7 +2112,7 @@
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J10" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
@@ -2152,13 +2219,13 @@
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O10" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P10" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q10" t="n">
         <v>0.694</v>
@@ -2173,10 +2240,10 @@
         <v>43.2</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>6.9</v>
@@ -2185,19 +2252,19 @@
         <v>5.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
         <v>19.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2215,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -2236,7 +2303,7 @@
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2254,16 +2321,16 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
         <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
@@ -2400,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2439,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>0.541</v>
+        <v>0.533</v>
       </c>
       <c r="H12" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P12" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.753</v>
@@ -2537,7 +2604,7 @@
         <v>42.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V12" t="n">
         <v>16.3</v>
@@ -2546,7 +2613,7 @@
         <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
         <v>6.2</v>
@@ -2555,25 +2622,25 @@
         <v>20.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>107</v>
+        <v>106.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2609,19 +2676,19 @@
         <v>20</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>28</v>
@@ -2633,10 +2700,10 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
         <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K13" t="n">
         <v>0.435</v>
@@ -2695,16 +2762,16 @@
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.742</v>
@@ -2716,7 +2783,7 @@
         <v>33</v>
       </c>
       <c r="T13" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
@@ -2725,7 +2792,7 @@
         <v>15.2</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>6.6</v>
@@ -2737,52 +2804,52 @@
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO13" t="n">
         <v>17</v>
       </c>
-      <c r="AO13" t="n">
-        <v>16</v>
-      </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>20</v>
@@ -2800,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
         <v>43</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.694</v>
+        <v>0.705</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2889,7 +2956,7 @@
         <v>23.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.706</v>
+        <v>0.703</v>
       </c>
       <c r="R14" t="n">
         <v>11.5</v>
@@ -2904,7 +2971,7 @@
         <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
         <v>9.9</v>
@@ -2913,19 +2980,19 @@
         <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
         <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2946,7 +3013,7 @@
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -2967,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -2982,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="n">
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.492</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3056,28 +3123,28 @@
         <v>0.461</v>
       </c>
       <c r="L15" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M15" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
         <v>44.7</v>
@@ -3086,31 +3153,31 @@
         <v>22.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
         <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA15" t="n">
         <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
         <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3128,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3152,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3167,10 +3234,10 @@
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R16" t="n">
         <v>13.3</v>
@@ -3265,7 +3332,7 @@
         <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
         <v>14.7</v>
@@ -3283,37 +3350,37 @@
         <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,16 +3389,16 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3355,19 +3422,19 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
@@ -3429,13 +3496,13 @@
         <v>0.393</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>8.4</v>
@@ -3450,7 +3517,7 @@
         <v>22.6</v>
       </c>
       <c r="V17" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W17" t="n">
         <v>8.6</v>
@@ -3468,16 +3535,16 @@
         <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC17" t="n">
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3507,10 +3574,10 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
         <v>12</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3683,7 +3750,7 @@
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
         <v>20</v>
@@ -3692,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>23</v>
@@ -3713,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,10 +3792,10 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3886,13 +3953,13 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -3913,7 +3980,7 @@
         <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4087,22 @@
         <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>25</v>
@@ -4059,10 +4126,10 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
         <v>24</v>
@@ -4080,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
         <v>35</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0.625</v>
+        <v>0.636</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.442</v>
@@ -4154,16 +4221,16 @@
         <v>29.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O21" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
@@ -4178,7 +4245,7 @@
         <v>19.5</v>
       </c>
       <c r="V21" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W21" t="n">
         <v>8.1</v>
@@ -4196,13 +4263,13 @@
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,19 +4278,19 @@
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
@@ -4277,7 +4344,7 @@
         <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.729</v>
+        <v>0.724</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4333,28 +4400,28 @@
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O22" t="n">
         <v>22.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.831</v>
+        <v>0.833</v>
       </c>
       <c r="R22" t="n">
         <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
         <v>22</v>
@@ -4381,13 +4448,13 @@
         <v>106.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>3</v>
@@ -4456,7 +4523,7 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.267</v>
+        <v>0.271</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.335</v>
+        <v>0.338</v>
       </c>
       <c r="O23" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="P23" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
         <v>23.5</v>
@@ -4554,19 +4621,19 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA23" t="n">
         <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4593,7 +4660,7 @@
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4605,22 +4672,22 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,7 +4696,7 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4691,7 +4758,7 @@
         <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
@@ -4700,7 +4767,7 @@
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O24" t="n">
         <v>12</v>
@@ -4709,28 +4776,28 @@
         <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R24" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T24" t="n">
         <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>7.1</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y24" t="n">
         <v>4.7</v>
@@ -4742,13 +4809,13 @@
         <v>16.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>92</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4763,13 +4830,13 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,10 +4857,10 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4808,7 +4875,7 @@
         <v>24</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-5.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>24</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4966,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
@@ -4984,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>16</v>
@@ -5139,16 +5206,16 @@
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ26" t="n">
         <v>9</v>
@@ -5166,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
         <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J27" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O27" t="n">
         <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="U27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
@@ -5279,7 +5346,7 @@
         <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
@@ -5288,52 +5355,52 @@
         <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.4</v>
+        <v>-7.1</v>
       </c>
       <c r="AD27" t="n">
         <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5351,7 +5418,7 @@
         <v>20</v>
       </c>
       <c r="AW27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,13 +5427,13 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O28" t="n">
         <v>17.2</v>
@@ -5437,19 +5504,19 @@
         <v>21.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5458,10 +5525,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
         <v>17.6</v>
@@ -5470,10 +5537,10 @@
         <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
         <v>3</v>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>23</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5715,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -5867,7 +5934,7 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>12</v>
@@ -5888,13 +5955,13 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="n">
         <v>39</v>
       </c>
       <c r="G31" t="n">
-        <v>0.328</v>
+        <v>0.316</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.43</v>
@@ -5974,25 +6041,25 @@
         <v>18.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O31" t="n">
         <v>14.7</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U31" t="n">
         <v>21.9</v>
@@ -6001,13 +6068,13 @@
         <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z31" t="n">
         <v>20.3</v>
@@ -6016,19 +6083,19 @@
         <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6040,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6049,10 +6116,10 @@
         <v>18</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6064,13 +6131,13 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
@@ -6079,13 +6146,13 @@
         <v>28</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>19</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-3-2012-13</t>
+          <t>2013-03-03</t>
         </is>
       </c>
     </row>
